--- a/natmiOut/OldD7/LR-pairs_lrc2p/Adam9-Itgav.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Adam9-Itgav.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.93088636957088</v>
+        <v>11.20127533333333</v>
       </c>
       <c r="H2">
-        <v>9.93088636957088</v>
+        <v>33.603826</v>
       </c>
       <c r="I2">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="J2">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N2">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O2">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P2">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q2">
-        <v>107.6096973855078</v>
+        <v>150.559354898398</v>
       </c>
       <c r="R2">
-        <v>107.6096973855078</v>
+        <v>1355.034194085582</v>
       </c>
       <c r="S2">
-        <v>0.008789869833227184</v>
+        <v>0.01064722547363908</v>
       </c>
       <c r="T2">
-        <v>0.008789869833227184</v>
+        <v>0.01064722547363908</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.93088636957088</v>
+        <v>11.20127533333333</v>
       </c>
       <c r="H3">
-        <v>9.93088636957088</v>
+        <v>33.603826</v>
       </c>
       <c r="I3">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="J3">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N3">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P3">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q3">
-        <v>541.7258311840267</v>
+        <v>612.8389674443033</v>
       </c>
       <c r="R3">
-        <v>541.7258311840267</v>
+        <v>5515.55070699873</v>
       </c>
       <c r="S3">
-        <v>0.04424972523011365</v>
+        <v>0.04333861997359744</v>
       </c>
       <c r="T3">
-        <v>0.04424972523011365</v>
+        <v>0.04333861997359745</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.93088636957088</v>
+        <v>11.20127533333333</v>
       </c>
       <c r="H4">
-        <v>9.93088636957088</v>
+        <v>33.603826</v>
       </c>
       <c r="I4">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="J4">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N4">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O4">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P4">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q4">
-        <v>552.8427325390575</v>
+        <v>713.2648415409533</v>
       </c>
       <c r="R4">
-        <v>552.8427325390575</v>
+        <v>6419.383573868579</v>
       </c>
       <c r="S4">
-        <v>0.04515778573240727</v>
+        <v>0.05044051626968539</v>
       </c>
       <c r="T4">
-        <v>0.04515778573240727</v>
+        <v>0.0504405162696854</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.93088636957088</v>
+        <v>11.20127533333333</v>
       </c>
       <c r="H5">
-        <v>9.93088636957088</v>
+        <v>33.603826</v>
       </c>
       <c r="I5">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="J5">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N5">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O5">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P5">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q5">
-        <v>163.1729584617143</v>
+        <v>201.2369451169796</v>
       </c>
       <c r="R5">
-        <v>163.1729584617143</v>
+        <v>1811.132506052816</v>
       </c>
       <c r="S5">
-        <v>0.0133284369348502</v>
+        <v>0.0142310328689487</v>
       </c>
       <c r="T5">
-        <v>0.0133284369348502</v>
+        <v>0.0142310328689487</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.7323808856486</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H6">
-        <v>47.7323808856486</v>
+        <v>143.833961</v>
       </c>
       <c r="I6">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="J6">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N6">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O6">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P6">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q6">
-        <v>517.2214112058551</v>
+        <v>644.4369870455031</v>
       </c>
       <c r="R6">
-        <v>517.2214112058551</v>
+        <v>5799.932883409528</v>
       </c>
       <c r="S6">
-        <v>0.04224813367117421</v>
+        <v>0.04557316222068316</v>
       </c>
       <c r="T6">
-        <v>0.04224813367117421</v>
+        <v>0.04557316222068317</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>47.7323808856486</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H7">
-        <v>47.7323808856486</v>
+        <v>143.833961</v>
       </c>
       <c r="I7">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="J7">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N7">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P7">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q7">
-        <v>2603.782054027054</v>
+        <v>2623.125597146712</v>
       </c>
       <c r="R7">
-        <v>2603.782054027054</v>
+        <v>23608.13037432041</v>
       </c>
       <c r="S7">
-        <v>0.2126844130691979</v>
+        <v>0.1855016561232116</v>
       </c>
       <c r="T7">
-        <v>0.2126844130691979</v>
+        <v>0.1855016561232116</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>47.7323808856486</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H8">
-        <v>47.7323808856486</v>
+        <v>143.833961</v>
       </c>
       <c r="I8">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="J8">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N8">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O8">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P8">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q8">
-        <v>2657.214965249604</v>
+        <v>3052.976985444237</v>
       </c>
       <c r="R8">
-        <v>2657.214965249604</v>
+        <v>27476.79286899813</v>
       </c>
       <c r="S8">
-        <v>0.2170489670626361</v>
+        <v>0.2158997981347063</v>
       </c>
       <c r="T8">
-        <v>0.2170489670626361</v>
+        <v>0.2158997981347063</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>47.7323808856486</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H9">
-        <v>47.7323808856486</v>
+        <v>143.833961</v>
       </c>
       <c r="I9">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="J9">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N9">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O9">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P9">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q9">
-        <v>784.2838507746633</v>
+        <v>861.351529308442</v>
       </c>
       <c r="R9">
-        <v>784.2838507746633</v>
+        <v>7752.163763775977</v>
       </c>
       <c r="S9">
-        <v>0.06406256246511732</v>
+        <v>0.06091288017805133</v>
       </c>
       <c r="T9">
-        <v>0.06406256246511732</v>
+        <v>0.06091288017805134</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.1810414869128</v>
+        <v>25.59984766666667</v>
       </c>
       <c r="H10">
-        <v>23.1810414869128</v>
+        <v>76.799543</v>
       </c>
       <c r="I10">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="J10">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N10">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O10">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P10">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q10">
-        <v>251.1865272299331</v>
+        <v>344.094438846689</v>
       </c>
       <c r="R10">
-        <v>251.1865272299331</v>
+        <v>3096.849949620201</v>
       </c>
       <c r="S10">
-        <v>0.02051763857584116</v>
+        <v>0.02433359970955212</v>
       </c>
       <c r="T10">
-        <v>0.02051763857584116</v>
+        <v>0.02433359970955213</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.1810414869128</v>
+        <v>25.59984766666667</v>
       </c>
       <c r="H11">
-        <v>23.1810414869128</v>
+        <v>76.799543</v>
       </c>
       <c r="I11">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="J11">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N11">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P11">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q11">
-        <v>1264.516428834325</v>
+        <v>1400.606961609501</v>
       </c>
       <c r="R11">
-        <v>1264.516428834325</v>
+        <v>12605.46265448551</v>
       </c>
       <c r="S11">
-        <v>0.1032893417738381</v>
+        <v>0.09904783485734499</v>
       </c>
       <c r="T11">
-        <v>0.1032893417738381</v>
+        <v>0.099047834857345</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>23.1810414869128</v>
+        <v>25.59984766666667</v>
       </c>
       <c r="H12">
-        <v>23.1810414869128</v>
+        <v>76.799543</v>
       </c>
       <c r="I12">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="J12">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N12">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O12">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P12">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q12">
-        <v>1290.465910273012</v>
+        <v>1630.124315853576</v>
       </c>
       <c r="R12">
-        <v>1290.465910273012</v>
+        <v>14671.11884268219</v>
       </c>
       <c r="S12">
-        <v>0.1054089701124317</v>
+        <v>0.1152787958786569</v>
       </c>
       <c r="T12">
-        <v>0.1054089701124317</v>
+        <v>0.1152787958786569</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>23.1810414869128</v>
+        <v>25.59984766666667</v>
       </c>
       <c r="H13">
-        <v>23.1810414869128</v>
+        <v>76.799543</v>
       </c>
       <c r="I13">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="J13">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N13">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O13">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P13">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q13">
-        <v>380.8843419287601</v>
+        <v>459.9150531162765</v>
       </c>
       <c r="R13">
-        <v>380.8843419287601</v>
+        <v>4139.235478046488</v>
       </c>
       <c r="S13">
-        <v>0.03111172941109929</v>
+        <v>0.03252417807285513</v>
       </c>
       <c r="T13">
-        <v>0.03111172941109929</v>
+        <v>0.03252417807285513</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.201318285323561</v>
+        <v>9.654369000000001</v>
       </c>
       <c r="H14">
-        <v>8.201318285323561</v>
+        <v>28.963107</v>
       </c>
       <c r="I14">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="J14">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N14">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O14">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P14">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q14">
-        <v>88.86833924009898</v>
+        <v>129.766970754261</v>
       </c>
       <c r="R14">
-        <v>88.86833924009898</v>
+        <v>1167.902736788349</v>
       </c>
       <c r="S14">
-        <v>0.007259021753561265</v>
+        <v>0.009176833930937938</v>
       </c>
       <c r="T14">
-        <v>0.007259021753561265</v>
+        <v>0.009176833930937938</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.201318285323561</v>
+        <v>9.654369000000001</v>
       </c>
       <c r="H15">
-        <v>8.201318285323561</v>
+        <v>28.963107</v>
       </c>
       <c r="I15">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="J15">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N15">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O15">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P15">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q15">
-        <v>447.3785923616042</v>
+        <v>528.205347446415</v>
       </c>
       <c r="R15">
-        <v>447.3785923616042</v>
+        <v>4753.848127017735</v>
       </c>
       <c r="S15">
-        <v>0.03654317118784593</v>
+        <v>0.03735351705272013</v>
       </c>
       <c r="T15">
-        <v>0.03654317118784593</v>
+        <v>0.03735351705272013</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.201318285323561</v>
+        <v>9.654369000000001</v>
       </c>
       <c r="H16">
-        <v>8.201318285323561</v>
+        <v>28.963107</v>
       </c>
       <c r="I16">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="J16">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N16">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O16">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P16">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q16">
-        <v>456.5593686756416</v>
+        <v>614.76231679359</v>
       </c>
       <c r="R16">
-        <v>456.5593686756416</v>
+        <v>5532.86085114231</v>
       </c>
       <c r="S16">
-        <v>0.03729308342372246</v>
+        <v>0.04347463499704286</v>
       </c>
       <c r="T16">
-        <v>0.03729308342372246</v>
+        <v>0.04347463499704286</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.201318285323561</v>
+        <v>9.654369000000001</v>
       </c>
       <c r="H17">
-        <v>8.201318285323561</v>
+        <v>28.963107</v>
       </c>
       <c r="I17">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="J17">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N17">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O17">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P17">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q17">
-        <v>134.7546752727798</v>
+        <v>173.445939571768</v>
       </c>
       <c r="R17">
-        <v>134.7546752727798</v>
+        <v>1561.013456145912</v>
       </c>
       <c r="S17">
-        <v>0.01100714976293624</v>
+        <v>0.01226571425836684</v>
       </c>
       <c r="T17">
-        <v>0.01100714976293624</v>
+        <v>0.01226571425836684</v>
       </c>
     </row>
   </sheetData>
